--- a/Final Project data/10 year NFL record.xlsx
+++ b/Final Project data/10 year NFL record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollyntorres/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollyntorres/Desktop/Gov50/ShinyApp_finalproject/Final Project data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C527367-4DCA-3A48-964D-2D0479DFCB65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF61C988-E116-D343-B14D-457D3D1F2D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="800" windowWidth="21560" windowHeight="15780" xr2:uid="{222BD496-A861-964A-A424-AABFB92F56B5}"/>
+    <workbookView xWindow="9740" yWindow="740" windowWidth="21560" windowHeight="15780" xr2:uid="{222BD496-A861-964A-A424-AABFB92F56B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t>NFL team</t>
-  </si>
-  <si>
     <t>Win</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Denver Broncos</t>
   </si>
   <si>
-    <t>Pittsburgh Steelers</t>
-  </si>
-  <si>
     <t>Atlanta Falcons</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>Tennessee Titans</t>
   </si>
   <si>
-    <t>Arizona Cardinals</t>
-  </si>
-  <si>
     <t>Miami Dolphins</t>
   </si>
   <si>
@@ -142,19 +133,34 @@
   </si>
   <si>
     <t>Buffalo Bills</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona Cardinals </t>
+  </si>
+  <si>
+    <t>Pittsburg Steelers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,11 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +506,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,21 +516,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>83</v>
@@ -537,7 +544,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>126</v>
@@ -551,7 +558,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>74</v>
@@ -565,7 +572,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>106</v>
@@ -579,7 +586,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>84</v>
@@ -593,7 +600,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>46</v>
@@ -607,7 +614,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>77</v>
@@ -621,7 +628,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>88</v>
@@ -635,7 +642,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>82</v>
@@ -649,7 +656,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>89</v>
@@ -663,7 +670,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>92</v>
@@ -677,7 +684,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>94</v>
@@ -691,7 +698,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>103</v>
@@ -705,7 +712,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>89</v>
@@ -719,7 +726,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>80</v>
@@ -733,7 +740,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>90</v>
@@ -747,7 +754,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>66</v>
@@ -761,7 +768,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>82</v>
@@ -775,7 +782,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>91</v>
@@ -789,7 +796,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>74</v>
@@ -803,7 +810,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -817,7 +824,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>63</v>
@@ -831,7 +838,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>60</v>
@@ -845,7 +852,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>73</v>
@@ -859,7 +866,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>86</v>
@@ -873,7 +880,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>71</v>
@@ -887,7 +894,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>72</v>
@@ -901,7 +908,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>63</v>
@@ -915,7 +922,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>53</v>
@@ -928,8 +935,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
+      <c r="A31" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B31">
         <v>83</v>
@@ -943,7 +950,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>48</v>
@@ -957,7 +964,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>66</v>
